--- a/src/test/resources/excelfile/SpiceJetTestData.xlsx
+++ b/src/test/resources/excelfile/SpiceJetTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5064"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18816" windowHeight="4272" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SignupLogin" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="ManageBooking" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K15"/>
+  <oleSize ref="A1:S13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
